--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/36/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/36/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4344344344344344</v>
+        <v>0.6810681068106811</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1179.179179179179</v>
+        <v>463.6963696369637</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009909909909909911</v>
+        <v>0.06392639263926393</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4714714714714714</v>
+        <v>0.2396239623962396</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>900.900900900901</v>
+        <v>1002.590259025903</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>835.835835835836</v>
+        <v>786.1386138613861</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>928.9289289289291</v>
+        <v>776.8010801080108</v>
       </c>
     </row>
   </sheetData>
